--- a/iis.xlsx
+++ b/iis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Carlo Moisés Onassis Salgado Organista</t>
   </si>
@@ -127,13 +127,16 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Parcial 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +148,22 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,14 +183,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,24 +529,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="3.83203125" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="F1" t="s">
         <v>26</v>
       </c>
@@ -534,8 +562,11 @@
       <c r="J1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="F2">
         <v>32</v>
       </c>
@@ -552,7 +583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -568,11 +599,23 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -592,7 +635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -612,7 +655,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -629,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -645,8 +688,11 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -663,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -680,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -699,6 +745,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/iis.xlsx
+++ b/iis.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Carlo Moisés Onassis Salgado Organista</t>
   </si>
@@ -105,9 +105,6 @@
     <t>2a</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
@@ -126,17 +123,17 @@
     <t>github for poets</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Parcial 1</t>
+  </si>
+  <si>
+    <t>proy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,13 +162,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,23 +193,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="21">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,61 +573,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="F2">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -599,23 +648,32 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>90</v>
+      </c>
+      <c r="M4">
         <v>38</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
+      <c r="N4">
         <v>9</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -631,11 +689,27 @@
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <f>I5+J5</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -651,11 +725,22 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -671,8 +756,26 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F7" s="3">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>80</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -688,11 +791,26 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
+      <c r="F8" s="4">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>80</v>
+      </c>
+      <c r="J8" s="4">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -708,8 +826,26 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F9" s="3">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -725,8 +861,26 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F10" s="3">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>78</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -741,11 +895,28 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>76</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/iis.xlsx
+++ b/iis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Carlo Moisés Onassis Salgado Organista</t>
   </si>
@@ -108,18 +108,12 @@
     <t>t1</t>
   </si>
   <si>
-    <t>t2</t>
-  </si>
-  <si>
     <t>git</t>
   </si>
   <si>
     <t>conceptos PSP0</t>
   </si>
   <si>
-    <t>conceptos PSP01</t>
-  </si>
-  <si>
     <t>github for poets</t>
   </si>
   <si>
@@ -127,6 +121,18 @@
   </si>
   <si>
     <t>proy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>total pts</t>
+  </si>
+  <si>
+    <t>par2</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -588,11 +594,11 @@
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="F1" t="s">
         <v>26</v>
       </c>
@@ -600,39 +606,50 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
         <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="F2">
         <v>32</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2">
-        <v>40</v>
+      <c r="M2" t="s">
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="3" spans="1:16">
+      <c r="O3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -666,14 +683,22 @@
       <c r="K4" s="2">
         <v>90</v>
       </c>
-      <c r="M4">
-        <v>38</v>
-      </c>
-      <c r="N4">
-        <v>9</v>
+      <c r="M4" s="3">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3">
+        <v>52</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(M4:N4)</f>
+        <v>92</v>
+      </c>
+      <c r="P4">
+        <f>O4*100/92</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -708,8 +733,22 @@
         <f>I5+J5</f>
         <v>100</v>
       </c>
+      <c r="M5" s="3">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3">
+        <v>52</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O11" si="0">SUM(M5:N5)</f>
+        <v>92</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P11" si="1">O5*100/92</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -739,8 +778,22 @@
       <c r="K6" s="2">
         <v>80</v>
       </c>
+      <c r="M6" s="3">
+        <v>40</v>
+      </c>
+      <c r="N6" s="3">
+        <v>45</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>92.391304347826093</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -774,8 +827,22 @@
       <c r="K7" s="2">
         <v>100</v>
       </c>
+      <c r="M7" s="3">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3">
+        <v>52</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -809,8 +876,22 @@
       <c r="K8" s="2">
         <v>100</v>
       </c>
+      <c r="M8" s="3">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3">
+        <v>52</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -844,8 +925,22 @@
       <c r="K9" s="2">
         <v>100</v>
       </c>
+      <c r="M9" s="3">
+        <v>40</v>
+      </c>
+      <c r="N9" s="3">
+        <v>52</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -879,8 +974,22 @@
       <c r="K10" s="2">
         <v>98</v>
       </c>
+      <c r="M10" s="3">
+        <v>37</v>
+      </c>
+      <c r="N10" s="3">
+        <v>52</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>96.739130434782609</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -913,6 +1022,20 @@
       </c>
       <c r="K11" s="2">
         <v>96</v>
+      </c>
+      <c r="M11" s="3">
+        <v>40</v>
+      </c>
+      <c r="N11" s="3">
+        <v>52</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/iis.xlsx
+++ b/iis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="20" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -581,21 +581,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
     <col min="8" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="2.5" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" customWidth="1"/>
+    <col min="15" max="15" width="4.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">

--- a/iis.xlsx
+++ b/iis.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/Desktop/introIngSw2020/acenteno_introing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59882905-A344-4A42-B010-888333F8F3F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="20" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Carlo Moisés Onassis Salgado Organista</t>
   </si>
@@ -133,12 +148,24 @@
   </si>
   <si>
     <t>par2</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>Parcial 3</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -151,6 +178,7 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -176,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +214,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,38 +262,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -578,31 +630,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="8" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4" style="2" customWidth="1"/>
     <col min="12" max="12" width="2.5" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
         <v>26</v>
       </c>
@@ -627,11 +685,23 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F2">
         <v>32</v>
       </c>
@@ -648,12 +718,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O3">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -697,12 +767,25 @@
         <f>SUM(M4:N4)</f>
         <v>92</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <f>O4*100/92</f>
         <v>100</v>
       </c>
+      <c r="Q4">
+        <v>54</v>
+      </c>
+      <c r="R4" s="3">
+        <v>71</v>
+      </c>
+      <c r="S4" s="6">
+        <v>100</v>
+      </c>
+      <c r="T4" s="8">
+        <f>(K4+P4+S4)/3</f>
+        <v>96.666666666666671</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -747,12 +830,25 @@
         <f t="shared" ref="O5:O11" si="0">SUM(M5:N5)</f>
         <v>92</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <f t="shared" ref="P5:P11" si="1">O5*100/92</f>
         <v>100</v>
       </c>
+      <c r="Q5">
+        <v>54</v>
+      </c>
+      <c r="R5" s="3">
+        <v>71</v>
+      </c>
+      <c r="S5" s="6">
+        <v>100</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" ref="T5:T11" si="2">(K5+P5+S5)/3</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -792,12 +888,25 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="5">
         <f t="shared" si="1"/>
         <v>92.391304347826093</v>
       </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="R6" s="3">
+        <v>71</v>
+      </c>
+      <c r="S6" s="6">
+        <v>100</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="2"/>
+        <v>90.797101449275374</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -841,12 +950,25 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="Q7">
+        <v>54</v>
+      </c>
+      <c r="R7" s="3">
+        <v>71</v>
+      </c>
+      <c r="S7" s="6">
+        <v>100</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -890,12 +1012,25 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="Q8">
+        <v>54</v>
+      </c>
+      <c r="R8">
+        <v>71</v>
+      </c>
+      <c r="S8" s="6">
+        <v>100</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -939,12 +1074,25 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="Q9">
+        <v>54</v>
+      </c>
+      <c r="R9" s="3">
+        <v>71</v>
+      </c>
+      <c r="S9" s="6">
+        <v>100</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -988,12 +1136,25 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <f t="shared" si="1"/>
         <v>96.739130434782609</v>
       </c>
+      <c r="Q10">
+        <v>54</v>
+      </c>
+      <c r="R10" s="3">
+        <v>71</v>
+      </c>
+      <c r="S10" s="6">
+        <v>100</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="2"/>
+        <v>98.246376811594203</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1037,9 +1198,22 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>54</v>
+      </c>
+      <c r="R11" s="3">
+        <v>71</v>
+      </c>
+      <c r="S11" s="6">
+        <v>100</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="2"/>
+        <v>98.666666666666671</v>
       </c>
     </row>
   </sheetData>
